--- a/excel/dsadsad.xlsx
+++ b/excel/dsadsad.xlsx
@@ -6,33 +6,45 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Bảng lương" r:id="rId3" sheetId="1"/>
+    <sheet name="Nhân sự" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>Mã nhân viên</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
+  <si>
+    <t>Mã NV</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
   </si>
   <si>
     <t>Chức vụ</t>
   </si>
   <si>
-    <t>Giờ làm</t>
-  </si>
-  <si>
-    <t>Giờ tăng ca</t>
-  </si>
-  <si>
-    <t>Hệ số tăng ca</t>
-  </si>
-  <si>
-    <t>Lương</t>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>CCCD</t>
+  </si>
+  <si>
+    <t>Ngày vào làm</t>
+  </si>
+  <si>
+    <t>Trình độ</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Ảnh</t>
   </si>
   <si>
     <t>n011</t>
@@ -41,25 +53,415 @@
     <t>Linh Tây</t>
   </si>
   <si>
+    <t>Nữ</t>
+  </si>
+  <si>
     <t>Công nhân may</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>n012</t>
+    <t>1970-01-01</t>
+  </si>
+  <si>
+    <t>098765432123</t>
+  </si>
+  <si>
+    <t>2007-01-01</t>
+  </si>
+  <si>
+    <t>không có</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đang làm việc </t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh2.jpeg</t>
+  </si>
+  <si>
+    <t>n013</t>
+  </si>
+  <si>
+    <t>Lan Xinh Yêu</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nhân viên văn phòng</t>
+  </si>
+  <si>
+    <t>094563738123</t>
+  </si>
+  <si>
+    <t>thạc sỹ</t>
+  </si>
+  <si>
+    <t>0126453782</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh3.jpg</t>
+  </si>
+  <si>
+    <t>n015</t>
+  </si>
+  <si>
+    <t>Liễu Như Yên</t>
+  </si>
+  <si>
+    <t>1976-01-01</t>
+  </si>
+  <si>
+    <t>091345273287</t>
+  </si>
+  <si>
+    <t>Cao Đẳng</t>
+  </si>
+  <si>
+    <t>0635467865</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh5.jpg</t>
+  </si>
+  <si>
+    <t>n017</t>
+  </si>
+  <si>
+    <t>Thẩm Ấu Sở</t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>091234234876</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>Trung Cấp</t>
+  </si>
+  <si>
+    <t>0654378261</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh7.jpg</t>
+  </si>
+  <si>
+    <t>n018</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Diễm</t>
+  </si>
+  <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>012654789354</t>
+  </si>
+  <si>
+    <t>Sơ Cấp Bậc 2</t>
+  </si>
+  <si>
+    <t>0985673214</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh8.jpg</t>
+  </si>
+  <si>
+    <t>n020</t>
+  </si>
+  <si>
+    <t>Đỗ Rê Mon</t>
+  </si>
+  <si>
+    <t>098767898765</t>
+  </si>
+  <si>
+    <t>Tốt nghiệp cấp 3</t>
+  </si>
+  <si>
+    <t>0989098789</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh10.jpg</t>
+  </si>
+  <si>
+    <t>n021</t>
+  </si>
+  <si>
+    <t>Nô Bi Ta</t>
+  </si>
+  <si>
+    <t>2002-03-06</t>
+  </si>
+  <si>
+    <t>123432654786</t>
+  </si>
+  <si>
+    <t>2009-07-14</t>
+  </si>
+  <si>
+    <t>Đại học</t>
+  </si>
+  <si>
+    <t>7465745362</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh11.jpg</t>
+  </si>
+  <si>
+    <t>n022</t>
+  </si>
+  <si>
+    <t>Xi Su Ka</t>
+  </si>
+  <si>
+    <t>2002-12-31</t>
+  </si>
+  <si>
+    <t>456354786564</t>
+  </si>
+  <si>
+    <t>2013-07-14</t>
+  </si>
+  <si>
+    <t>Cấp 3</t>
+  </si>
+  <si>
+    <t>1235678764</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh12.jpg</t>
+  </si>
+  <si>
+    <t>n023</t>
+  </si>
+  <si>
+    <t>Su Ni Ô</t>
+  </si>
+  <si>
+    <t>Nhân viên thời vụ</t>
+  </si>
+  <si>
+    <t>1976-10-25</t>
+  </si>
+  <si>
+    <t>134253465785</t>
+  </si>
+  <si>
+    <t>6475636547</t>
+  </si>
+  <si>
+    <t>Thôi việc</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh13.jpg</t>
+  </si>
+  <si>
+    <t>n024</t>
+  </si>
+  <si>
+    <t>Chai An</t>
+  </si>
+  <si>
+    <t>1973-10-25</t>
+  </si>
+  <si>
+    <t>123456539055</t>
+  </si>
+  <si>
+    <t>Tiêns sĩ</t>
+  </si>
+  <si>
+    <t>1342365766</t>
+  </si>
+  <si>
+    <t>Nghỉ phép</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh14.jpeg</t>
+  </si>
+  <si>
+    <t>n025</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>1972-10-25</t>
+  </si>
+  <si>
+    <t>555666777888</t>
+  </si>
+  <si>
+    <t>Đại Học</t>
+  </si>
+  <si>
+    <t>3546787645</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh16.jpg</t>
+  </si>
+  <si>
+    <t>n026</t>
+  </si>
+  <si>
+    <t>Nguyễn Lan Anh</t>
+  </si>
+  <si>
+    <t>2005-10-27</t>
+  </si>
+  <si>
+    <t>647888777987</t>
+  </si>
+  <si>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>2435647689</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh17.jpg</t>
+  </si>
+  <si>
+    <t>n027</t>
+  </si>
+  <si>
+    <t>Lê Hương Giang</t>
+  </si>
+  <si>
+    <t>2005-09-20</t>
+  </si>
+  <si>
+    <t>675687487987</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>4675847364</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh18.jpeg</t>
+  </si>
+  <si>
+    <t>n028</t>
+  </si>
+  <si>
+    <t>Võ Sơn Tùng</t>
+  </si>
+  <si>
+    <t>1999-07-17</t>
+  </si>
+  <si>
+    <t>467587654564</t>
+  </si>
+  <si>
+    <t>Tiến sĩ</t>
+  </si>
+  <si>
+    <t>7656765432</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh19.jpg</t>
+  </si>
+  <si>
+    <t>n029</t>
+  </si>
+  <si>
+    <t>Nguyễn Phương Linh</t>
+  </si>
+  <si>
+    <t>2003-07-17</t>
+  </si>
+  <si>
+    <t>145432676588</t>
+  </si>
+  <si>
+    <t>2018-07-17</t>
+  </si>
+  <si>
+    <t>Không có</t>
+  </si>
+  <si>
+    <t>3565478763</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh20.jpg</t>
+  </si>
+  <si>
+    <t>n030</t>
+  </si>
+  <si>
+    <t>Trần Quốc Toàn</t>
+  </si>
+  <si>
+    <t>1990-12-18</t>
+  </si>
+  <si>
+    <t>456768798654</t>
+  </si>
+  <si>
+    <t>Thạc Sỹ</t>
+  </si>
+  <si>
+    <t>2345769876</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh21.jpg</t>
+  </si>
+  <si>
+    <t>n11</t>
+  </si>
+  <si>
+    <t>Hoàng Anh Tuấn</t>
+  </si>
+  <si>
+    <t>2006-02-03</t>
+  </si>
+  <si>
+    <t>123456789011</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\DowANh\a9d36a612fdd47e54db94a935f2a2a5c-removebg-preview.png</t>
+  </si>
+  <si>
+    <t>n122</t>
   </si>
   <si>
     <t>Nguyễn Thị Nhi</t>
   </si>
   <si>
-    <t>Nhân viên văn phòng</t>
-  </si>
-  <si>
-    <t>0.2</t>
+    <t>2008-01-28</t>
+  </si>
+  <si>
+    <t>030403033232</t>
+  </si>
+  <si>
+    <t>0113232323</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh1.jpg</t>
+  </si>
+  <si>
+    <t>nv22</t>
+  </si>
+  <si>
+    <t>Nô Bi Tô</t>
+  </si>
+  <si>
+    <t>123332654786</t>
+  </si>
+  <si>
+    <t>7463345362</t>
+  </si>
+  <si>
+    <t>C:\Users\x\Downloads\HAT\Java_oop\BAI_TAP_LON\QLNV_MA\src\anh_nv\anh25.jpg</t>
   </si>
 </sst>
 </file>
@@ -104,19 +506,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.9296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.015625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.1640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.98046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.75" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.7109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.7578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.41796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="13.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -141,51 +547,682 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
         <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
